--- a/script_DNRPA/files/registroInscripcionMotoCorrientes.xlsx
+++ b/script_DNRPA/files/registroInscripcionMotoCorrientes.xlsx
@@ -480,566 +480,566 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C2" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F2" t="n">
+        <v>52</v>
+      </c>
+      <c r="G2" t="n">
+        <v>52</v>
+      </c>
+      <c r="H2" t="n">
         <v>49</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>38</v>
       </c>
-      <c r="H2" t="n">
-        <v>46</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46</v>
-      </c>
       <c r="J2" t="n">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="K2" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L2" t="n">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O2" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B3" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C3" t="n">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="D3" t="n">
+        <v>46</v>
+      </c>
+      <c r="E3" t="n">
+        <v>108</v>
+      </c>
+      <c r="F3" t="n">
+        <v>55</v>
+      </c>
+      <c r="G3" t="n">
         <v>54</v>
       </c>
-      <c r="E3" t="n">
-        <v>132</v>
-      </c>
-      <c r="F3" t="n">
-        <v>58</v>
-      </c>
-      <c r="G3" t="n">
-        <v>68</v>
-      </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
         <v>36</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L3" t="n">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O3" t="n">
-        <v>1265</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B4" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" t="n">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="D4" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="F4" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J4" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K4" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="L4" t="n">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="M4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O4" t="n">
-        <v>1702</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C5" t="n">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F5" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H5" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L5" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M5" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="O5" t="n">
-        <v>1325</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B6" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C6" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D6" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F6" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I6" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="n">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O6" t="n">
-        <v>1345</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B7" t="n">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C7" t="n">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E7" t="n">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="F7" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H7" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I7" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K7" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L7" t="n">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="O7" t="n">
-        <v>1306</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B8" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="D8" t="n">
+        <v>36</v>
+      </c>
+      <c r="E8" t="n">
+        <v>189</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34</v>
+      </c>
+      <c r="G8" t="n">
+        <v>39</v>
+      </c>
+      <c r="H8" t="n">
+        <v>83</v>
+      </c>
+      <c r="I8" t="n">
         <v>42</v>
       </c>
-      <c r="E8" t="n">
-        <v>168</v>
-      </c>
-      <c r="F8" t="n">
-        <v>36</v>
-      </c>
-      <c r="G8" t="n">
-        <v>42</v>
-      </c>
-      <c r="H8" t="n">
-        <v>69</v>
-      </c>
-      <c r="I8" t="n">
-        <v>58</v>
-      </c>
       <c r="J8" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L8" t="n">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N8" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O8" t="n">
-        <v>1222</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B9" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B10" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="B11" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44866</v>
+        <v>45231</v>
       </c>
       <c r="B12" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44896</v>
+        <v>45261</v>
       </c>
       <c r="B13" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
